--- a/pred_ohlcv/54_21/2019-11-17 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 CTXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-57953.85178700458</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-53457.65618700458</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11043.38628700458</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>533.0438129954218</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>49444.97651299542</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>86402.82451299543</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>84439.27451299543</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>118498.5093129954</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>118493.1302129954</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>113011.3158129954</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>113017.3158129954</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>111517.3158129954</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>73532.38731299543</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>73097.18291299543</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>86920.34811299542</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>124623.5052216911</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>138031.2038216911</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>129580.3850216911</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>136413.9753216911</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>131328.1569216911</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>138947.4916216911</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>147876.1637216911</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>144349.8530216911</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>143725.5697216911</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>142274.5435216911</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>162863.7604216911</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>172135.0676216911</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>171499.0687216911</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>166348.5086216911</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>190071.5967216911</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>182134.8201216911</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>183715.8201216911</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>183712.8201216911</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>226742.4481216912</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>222837.2086216912</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>222250.3091216912</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>248563.6404216912</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1021417.409638413</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>994689.6847384127</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>991452.8869110016</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1045831.683711002</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>996950.9981194594</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>979247.8534194594</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>750114.7897194594</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>661740.4945194593</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>671672.1305194594</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>690942.6410194593</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>539085.7311194594</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>539085.7311194594</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>547200.0732194594</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>325071.2459352487</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>317058.2204352487</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>276907.7877352487</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>276575.7542352487</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>348628.7502352487</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>348603.1630352487</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>348066.8989352487</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>305739.9541352486</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>316571.0234352486</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>317666.0985352486</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>316604.2759352486</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>311806.5548352486</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>314521.1190947081</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>313439.3223947081</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>296918.268174922</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>302262.300874922</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>302558.1128749219</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>32490.32757492188</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>33453.32757492188</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>32953.32757492188</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>116344.76529412</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-108985.3055081922</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-95794.76370819216</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-139178.7971081921</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-111625.9885081921</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-111614.9885081921</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-129861.1304081921</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-129861.1304081921</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-131994.3512081922</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-131994.3512081922</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-130292.6440081921</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-108124.6406081921</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-107924.6406081921</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-109806.2594081921</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-132718.0336081921</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-127971.5747081921</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-17 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-17 CTXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-57953.85178700458</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-53457.65618700458</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11043.38628700458</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>533.0438129954218</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>49444.97651299542</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>86402.82451299543</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>84439.27451299543</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>118498.5093129954</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>118493.1302129954</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>113011.3158129954</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>113017.3158129954</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>111517.3158129954</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>73532.38731299543</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>73097.18291299543</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>86920.34811299542</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>124623.5052216911</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>138031.2038216911</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>129580.3850216911</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>136413.9753216911</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>131328.1569216911</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>138947.4916216911</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>147876.1637216911</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>144349.8530216911</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>143725.5697216911</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>142274.5435216911</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>162863.7604216911</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>172135.0676216911</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>171499.0687216911</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>166348.5086216911</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>190071.5967216911</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>182134.8201216911</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>183715.8201216911</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>183712.8201216911</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>226742.4481216912</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>222837.2086216912</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>222250.3091216912</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>248563.6404216912</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1021417.409638413</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>994689.6847384127</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>991452.8869110016</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1045831.683711002</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>996950.9981194594</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>979247.8534194594</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>750114.7897194594</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>743405.5821194593</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>692620.6152194593</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>661740.4945194593</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>698748.4689194594</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>690942.6410194593</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>647267.6532194593</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>539085.7311194594</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>547200.0732194594</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>325071.2459352487</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>317058.2204352487</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>276907.7877352487</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>276575.7542352487</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>348628.7502352487</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>348603.1630352487</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>348066.8989352487</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>305739.9541352486</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>316571.0234352486</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>317666.0985352486</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>316604.2759352486</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>311806.5548352486</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>314521.1190947081</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>313439.3223947081</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>296918.268174922</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>302262.300874922</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>302558.1128749219</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>32490.32757492188</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>33453.32757492188</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>32953.32757492188</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>116344.76529412</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-108985.3055081922</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-95794.76370819216</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-139178.7971081921</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-111625.9885081921</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-111614.9885081921</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-129861.1304081921</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-129861.1304081921</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-131994.3512081922</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-131994.3512081922</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-108124.6406081921</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-107924.6406081921</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-109806.2594081921</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-132718.0336081921</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-127971.5747081921</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
